--- a/dataset/Election/President2020.xlsx
+++ b/dataset/Election/President2020.xlsx
@@ -49,190 +49,190 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Albany County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegany County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broome County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cattaraugus County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayuga County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chautauqua County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemung County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenango County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinton County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbia County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortland County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutchess County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erie County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essex County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franklin County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulton County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genesee County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greene County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herkimer County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jefferson County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis County </t>
-  </si>
-  <si>
-    <t>Livingston County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monroe County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montgomery County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nassau County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niagara County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oneida County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onondaga County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontario County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orleans County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oswego County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otsego County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putnam County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rensselaer County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockland County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Lawrence County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saratoga County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schenectady County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schoharie County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuyler County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seneca County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steuben County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suffolk County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sullivan County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tioga County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tompkins County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulster County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wayne County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westchester County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyoming County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yates County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronx County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kings County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond County </t>
+    <t xml:space="preserve">Albany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattaraugus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayuga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chautauqua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutchess </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franklin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herkimer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis </t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monroe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nassau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niagara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oneida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onondaga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orleans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otsego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putnam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rensselaer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Lawrence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saratoga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schenectady </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schoharie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuyler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seneca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suffolk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tioga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tompkins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westchester </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond </t>
   </si>
 </sst>
 </file>
@@ -240,8 +240,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -254,17 +254,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +294,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -311,7 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,43 +326,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +346,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -386,6 +363,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,19 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,13 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,25 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,12 +591,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -605,7 +605,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +636,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -644,16 +655,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,28 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,10 +721,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -733,118 +733,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,11 +1173,21 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="22.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1240,7 +1250,7 @@
         <v>595</v>
       </c>
       <c r="I2">
-        <v>487</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>654</v>
@@ -1275,7 +1285,7 @@
         <v>92</v>
       </c>
       <c r="I3">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>70</v>
@@ -1310,7 +1320,7 @@
         <v>372</v>
       </c>
       <c r="I4">
-        <v>366</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>334</v>
@@ -1345,7 +1355,7 @@
         <v>154</v>
       </c>
       <c r="I5">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>94</v>
@@ -1380,7 +1390,7 @@
         <v>162</v>
       </c>
       <c r="I6">
-        <v>258</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>81</v>
@@ -1415,7 +1425,7 @@
         <v>272</v>
       </c>
       <c r="I7">
-        <v>369</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>206</v>
@@ -1450,7 +1460,7 @@
         <v>162</v>
       </c>
       <c r="I8">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>47</v>
@@ -1485,7 +1495,7 @@
         <v>80</v>
       </c>
       <c r="I9">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>64</v>
@@ -1520,7 +1530,7 @@
         <v>153</v>
       </c>
       <c r="I10">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>103</v>
@@ -1555,7 +1565,7 @@
         <v>115</v>
       </c>
       <c r="I11">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>117</v>
@@ -1590,7 +1600,7 @@
         <v>96</v>
       </c>
       <c r="I12">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="J12">
         <v>42</v>
@@ -1625,7 +1635,7 @@
         <v>79</v>
       </c>
       <c r="I13">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>54</v>
@@ -1660,7 +1670,7 @@
         <v>513</v>
       </c>
       <c r="I14">
-        <v>610</v>
+        <v>36</v>
       </c>
       <c r="J14">
         <v>534</v>
@@ -1695,7 +1705,7 @@
         <v>1895</v>
       </c>
       <c r="I15">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2179</v>
@@ -1730,7 +1740,7 @@
         <v>90</v>
       </c>
       <c r="I16">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>65</v>
@@ -1765,7 +1775,7 @@
         <v>93</v>
       </c>
       <c r="I17">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>58</v>
@@ -1800,7 +1810,7 @@
         <v>87</v>
       </c>
       <c r="I18">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>46</v>
@@ -1835,7 +1845,7 @@
         <v>138</v>
       </c>
       <c r="I19">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>78</v>
@@ -1870,7 +1880,7 @@
         <v>91</v>
       </c>
       <c r="I20">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>84</v>
@@ -1905,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1940,7 +1950,7 @@
         <v>111</v>
       </c>
       <c r="I22">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>74</v>
@@ -1975,7 +1985,7 @@
         <v>189</v>
       </c>
       <c r="I23">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>122</v>
@@ -2010,7 +2020,7 @@
         <v>47</v>
       </c>
       <c r="I24">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>39</v>
@@ -2045,7 +2055,7 @@
         <v>140</v>
       </c>
       <c r="I25">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>91</v>
@@ -2080,7 +2090,7 @@
         <v>153</v>
       </c>
       <c r="I26">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <v>80</v>
@@ -2115,7 +2125,7 @@
         <v>1785</v>
       </c>
       <c r="I27">
-        <v>2228</v>
+        <v>112</v>
       </c>
       <c r="J27">
         <v>1407</v>
@@ -2150,7 +2160,7 @@
         <v>79</v>
       </c>
       <c r="I28">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>48</v>
@@ -2185,7 +2195,7 @@
         <v>1901</v>
       </c>
       <c r="I29">
-        <v>4916</v>
+        <v>56</v>
       </c>
       <c r="J29">
         <v>2470</v>
@@ -2220,7 +2230,7 @@
         <v>479</v>
       </c>
       <c r="I30">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <v>286</v>
@@ -2255,7 +2265,7 @@
         <v>396</v>
       </c>
       <c r="I31">
-        <v>715</v>
+        <v>15</v>
       </c>
       <c r="J31">
         <v>235</v>
@@ -2289,9 +2299,7 @@
       <c r="H32">
         <v>848</v>
       </c>
-      <c r="I32">
-        <v>900</v>
-      </c>
+      <c r="I32"/>
       <c r="J32">
         <v>51</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>318</v>
       </c>
       <c r="I33">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <v>97</v>
@@ -2360,7 +2368,7 @@
         <v>507</v>
       </c>
       <c r="I34">
-        <v>732</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <v>377</v>
@@ -2395,7 +2403,7 @@
         <v>71</v>
       </c>
       <c r="I35">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>37</v>
@@ -2430,7 +2438,7 @@
         <v>207</v>
       </c>
       <c r="I36">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <v>156</v>
@@ -2465,7 +2473,7 @@
         <v>96</v>
       </c>
       <c r="I37">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>70</v>
@@ -2500,7 +2508,7 @@
         <v>155</v>
       </c>
       <c r="I38">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="J38">
         <v>131</v>
@@ -2535,7 +2543,7 @@
         <v>386</v>
       </c>
       <c r="I39">
-        <v>553</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <v>123</v>
@@ -2570,7 +2578,7 @@
         <v>334</v>
       </c>
       <c r="I40">
-        <v>523</v>
+        <v>17</v>
       </c>
       <c r="J40">
         <v>489</v>
@@ -2605,7 +2613,7 @@
         <v>172</v>
       </c>
       <c r="I41">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <v>107</v>
@@ -2640,7 +2648,7 @@
         <v>580</v>
       </c>
       <c r="I42">
-        <v>505</v>
+        <v>15</v>
       </c>
       <c r="J42">
         <v>396</v>
@@ -2675,7 +2683,7 @@
         <v>345</v>
       </c>
       <c r="I43">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="J43">
         <v>282</v>
@@ -2710,7 +2718,7 @@
         <v>77</v>
       </c>
       <c r="I44">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>40</v>
@@ -2745,7 +2753,7 @@
         <v>33</v>
       </c>
       <c r="I45">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>35</v>
@@ -2780,7 +2788,7 @@
         <v>92</v>
       </c>
       <c r="I46">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <v>35</v>
@@ -2815,7 +2823,7 @@
         <v>167</v>
       </c>
       <c r="I47">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <v>120</v>
@@ -2850,7 +2858,7 @@
         <v>2476</v>
       </c>
       <c r="I48">
-        <v>2921</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>2135</v>
@@ -2885,7 +2893,7 @@
         <v>112</v>
       </c>
       <c r="I49">
-        <v>391</v>
+        <v>5</v>
       </c>
       <c r="J49">
         <v>94</v>
@@ -2920,7 +2928,7 @@
         <v>97</v>
       </c>
       <c r="I50">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J50">
         <v>74</v>
@@ -2955,7 +2963,7 @@
         <v>137</v>
       </c>
       <c r="I51">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="J51">
         <v>151</v>
@@ -2990,7 +2998,7 @@
         <v>344</v>
       </c>
       <c r="I52">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>380</v>
@@ -3025,7 +3033,7 @@
         <v>162</v>
       </c>
       <c r="I53">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="J53">
         <v>108</v>
@@ -3060,7 +3068,7 @@
         <v>119</v>
       </c>
       <c r="I54">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="J54">
         <v>56</v>
@@ -3095,7 +3103,7 @@
         <v>214</v>
       </c>
       <c r="I55">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>102</v>
@@ -3129,6 +3137,9 @@
       <c r="H56">
         <v>1145</v>
       </c>
+      <c r="I56">
+        <v>44</v>
+      </c>
       <c r="K56">
         <v>462078</v>
       </c>
@@ -3159,7 +3170,7 @@
         <v>93</v>
       </c>
       <c r="I57">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>39</v>
@@ -3194,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="I58">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>32</v>
@@ -3229,7 +3240,7 @@
         <v>406</v>
       </c>
       <c r="I59">
-        <v>5706</v>
+        <v>28</v>
       </c>
       <c r="J59">
         <v>810</v>
@@ -3264,7 +3275,7 @@
         <v>682</v>
       </c>
       <c r="I60">
-        <v>4371</v>
+        <v>33</v>
       </c>
       <c r="J60">
         <v>2319</v>
@@ -3299,7 +3310,7 @@
         <v>656</v>
       </c>
       <c r="I61">
-        <v>3592</v>
+        <v>62</v>
       </c>
       <c r="J61">
         <v>2550</v>
@@ -3334,7 +3345,7 @@
         <v>705</v>
       </c>
       <c r="I62">
-        <v>4517</v>
+        <v>67</v>
       </c>
       <c r="J62">
         <v>1719</v>
@@ -3369,7 +3380,7 @@
         <v>265</v>
       </c>
       <c r="I63">
-        <v>1132</v>
+        <v>11</v>
       </c>
       <c r="J63">
         <v>489</v>
